--- a/00_kadai/03_詳細設計書.xlsx
+++ b/00_kadai/03_詳細設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_hyper\00_kadai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-12\workspace\hyperrobot\00_kadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E6A9B-3F33-4E47-AFC2-2FB6CE5242C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093955D-A24D-476C-9C29-031CD794EFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1110" windowWidth="20235" windowHeight="12990" tabRatio="755" activeTab="4" xr2:uid="{A5B20F8F-2D6B-4B31-8963-3388F980833E}"/>
+    <workbookView xWindow="1635" yWindow="1305" windowWidth="20220" windowHeight="11805" tabRatio="755" activeTab="5" xr2:uid="{A5B20F8F-2D6B-4B31-8963-3388F980833E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -2339,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E3CBA-9522-4889-9BB2-D14AC4D6991B}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2560,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BBF30-B081-4965-9B8C-415780ECC913}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
